--- a/アルバム更新・削除_結合テスト.xlsx
+++ b/アルバム更新・削除_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{182C79BB-F88D-4BFD-9BFF-11FCCA283EF7}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35C127B-5A9C-48CF-8473-61F8D575B1D0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6 (2)" sheetId="12" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="161">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1174,41 +1174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.アカウント削除確認画面の「削除する」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.アカウント削除確認画面で確認</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新処理</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -1248,25 +1213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイページ画面からマイページ更新完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>どこも変更しなかった場合、「変更はありませんでkした。」の表示</t>
     <rPh sb="3" eb="5">
       <t>ヘンコウ</t>
@@ -1347,35 +1293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.マイページ画面の「更新」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ更新完了画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.更新完了後、DBで確認</t>
     <rPh sb="2" eb="4">
       <t>コウシン</t>
@@ -1392,44 +1309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント情報画面からアカウント削除画面</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント削除画面からアカウント削除完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除フラグ無効</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -1541,28 +1420,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戻るボタンを押下後、アルバム情報画面遷移</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アルバム更新画面に遷移</t>
     <rPh sb="4" eb="6">
       <t>コウシン</t>
@@ -1756,105 +1613,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.タイトルを変更し、ブログ更新画面の「更新」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「タイトルが変更されました。」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.ブログ更新完了画面に遷移</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.内容を変更し、ブログ更新画面の「更新」ボタンを押す</t>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.両項目を変更し、ブログ更新画面の「更新」ボタンを押す</t>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ブログ更新画面の「更新」ボタンを押す</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1954,38 +1713,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.ブログ情報画面の「…」ボタンを押し、「削除」を押す</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.ブログ削除画面に遷移</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アルバム削除</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
@@ -2016,19 +1743,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当ブログの「写真」が表示されているか</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アルバム削除画面に遷移</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
@@ -2055,93 +1769,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.ブログ削除画面の「削除」を押す</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.ブログ削除完了画面に遷移</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ブログ削除完了後、DBで確認</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.ブログ削除完了画面の「ブログへ」を押す</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.ブログ一覧画面に遷移</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ログインしない状態で、blog-delete-complete.phpをURLに直打ちする</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>チョクウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アルバム削除完了画面に遷移するか</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
@@ -2217,6 +1844,402 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム削除画面からアルバム削除完了画面</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム情報画面の「…」ボタンを押し、「削除」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム削除画面の「削除」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アルバム削除完了画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム削除画面の「削除する」ボタンを押す</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アルバム削除完了画面で確認</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム削除完了後、DBで確認</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アルバム削除完了画面の「アルバムへ」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.アルバム一覧画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、album-delete-complete.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、album-delete.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム情報画面からアルバム削除画面</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム削除画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アルバムの「写真」が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム更新完了画面</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム情報画面の「…」ボタンを押し、「更新」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム更新完了画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.タイトルを変更し、アルバム更新画面の「更新」ボタンを押す</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.内容を変更し、アルバム更新画面の「更新」ボタンを押す</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.両項目を変更し、アルバム更新画面の「更新」ボタンを押す</t>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、album-update-complete.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンを押下後、アルバム情報画面遷移（アカウント権限「管理者」の場合）</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム更新画面を空欄で「更新」ボタンを押す</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面が遷移せず、更新ができない</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2306,7 +2329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2331,11 +2354,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="112">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2401,9 +2430,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2412,6 +2438,9 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2420,199 +2449,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2677,9 +2513,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2688,6 +2521,9 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2696,6 +2532,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2887,6 +2731,365 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3452,89 +3655,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3726,100 +3846,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3835,43 +3861,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E491157E-528B-4334-997A-1BD31BA3E0DC}" name="テーブル2148" displayName="テーブル2148" ref="A7:I16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E491157E-528B-4334-997A-1BD31BA3E0DC}" name="テーブル2148" displayName="テーブル2148" ref="A7:I17" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{738D7DC5-D940-48FF-84D8-1624B8F142DC}" name="項目番号" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{A470E900-41A9-4947-B224-F3B69D280DA8}" name="大項目" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{E043D443-A65E-4353-B978-0C37B79E539A}" name="列3" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{ADAD2CEE-35E2-4AB7-BE8F-268136A7DF29}" name="確認内容" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{F633ABA2-BF99-426F-8F73-CF702E325DDB}" name="操作手順" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{DF15D41C-4EEE-44C6-994F-744F0766B3E9}" name="期待値" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{F09B9237-5C29-46E3-8EC0-4B01CDE1204B}" name="実施日" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{0BCDA739-0E17-4980-993A-8F45B35A8D45}" name="実施結果" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{FC5DFB9D-F2C8-450A-B413-FD09D568B5BD}" name="備考" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{738D7DC5-D940-48FF-84D8-1624B8F142DC}" name="項目番号" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{A470E900-41A9-4947-B224-F3B69D280DA8}" name="大項目" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{E043D443-A65E-4353-B978-0C37B79E539A}" name="列3" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{ADAD2CEE-35E2-4AB7-BE8F-268136A7DF29}" name="確認内容" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{F633ABA2-BF99-426F-8F73-CF702E325DDB}" name="操作手順" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{DF15D41C-4EEE-44C6-994F-744F0766B3E9}" name="期待値" dataDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{F09B9237-5C29-46E3-8EC0-4B01CDE1204B}" name="実施日" dataDxfId="105"/>
+    <tableColumn id="8" xr3:uid="{0BCDA739-0E17-4980-993A-8F45B35A8D45}" name="実施結果" dataDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{FC5DFB9D-F2C8-450A-B413-FD09D568B5BD}" name="備考" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="110" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="105"/>
-    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{58AAC923-C89D-4FA4-8219-AE907CFFC2DC}" name="大項目"/>
     <tableColumn id="3" xr3:uid="{582A2686-E28B-490A-8FA1-112B4B468D7E}" name="列3"/>
     <tableColumn id="4" xr3:uid="{7FF85854-A416-4892-9D1F-7E6D0675F464}" name="確認内容"/>
@@ -3886,17 +3912,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B91D3F59-DE51-4152-A829-19C270CA285A}" name="テーブル3159" displayName="テーブル3159" ref="A19:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B91D3F59-DE51-4152-A829-19C270CA285A}" name="テーブル3159" displayName="テーブル3159" ref="A19:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="102">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8FF3AD1A-6D45-40BB-BC43-4C2F8111E0B8}" name="項目番号" headerRowDxfId="88" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{0A5EF5B0-9C59-436D-804A-02E6223FC7B1}" name="大項目" headerRowDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{67ADB4C6-DABA-417F-9DAE-0BF6748CFDD3}" name="列3" headerRowDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{FB5193EE-566E-48EB-BABC-6B1B1BE2C848}" name="確認内容" headerRowDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{1244DF93-7D1D-42B9-9857-0BE4204C118F}" name="操作手順" headerRowDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{27C1274C-3336-4703-84DB-E749E852156B}" name="期待値" headerRowDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{4F4724A1-925B-4FB9-8B86-54455A765E4C}" name="実施日" headerRowDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{3E0670D9-B059-4BDB-9596-4E520F856B91}" name="実施結果" headerRowDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{8FEE1010-1506-4B64-8923-DAE3C2C43F0C}" name="備考" headerRowDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{8FF3AD1A-6D45-40BB-BC43-4C2F8111E0B8}" name="項目番号" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{0A5EF5B0-9C59-436D-804A-02E6223FC7B1}" name="大項目" headerRowDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{67ADB4C6-DABA-417F-9DAE-0BF6748CFDD3}" name="列3" headerRowDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{FB5193EE-566E-48EB-BABC-6B1B1BE2C848}" name="確認内容" headerRowDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{1244DF93-7D1D-42B9-9857-0BE4204C118F}" name="操作手順" headerRowDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{27C1274C-3336-4703-84DB-E749E852156B}" name="期待値" headerRowDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{4F4724A1-925B-4FB9-8B86-54455A765E4C}" name="実施日" headerRowDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{3E0670D9-B059-4BDB-9596-4E520F856B91}" name="実施結果" headerRowDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{8FEE1010-1506-4B64-8923-DAE3C2C43F0C}" name="備考" headerRowDxfId="92"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3905,49 +3931,49 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{86808509-89E0-4CBD-BB66-F0A6D05A568A}" name="テーブル2141611" displayName="テーブル2141611" ref="A7:I13" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{964D6094-EC7D-4E0C-8B85-38CFBD33EE8B}" name="項目番号" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{609B66B5-9AD7-469E-99A5-818EFC0655C7}" name="大項目" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{87A38676-E612-4E9A-9DBA-B936992586B3}" name="列3" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{AD1DAF14-2494-433C-BBB1-44801AD4E8EA}" name="確認内容" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{22505C77-FA6B-4DED-ADC6-94C4921094C3}" name="操作手順" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{0A1279C3-6F65-47C5-9530-5470D0B9BBDD}" name="期待値" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{C032D18C-30AF-415B-941D-B8C551E00BE7}" name="実施日" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{32AD4535-C6D9-4F50-9E5C-C27A0BCBC8D9}" name="実施結果" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{6709E73D-ECEE-4F3E-AD34-EAF985C58B27}" name="備考" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{964D6094-EC7D-4E0C-8B85-38CFBD33EE8B}" name="項目番号" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{609B66B5-9AD7-469E-99A5-818EFC0655C7}" name="大項目" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{87A38676-E612-4E9A-9DBA-B936992586B3}" name="列3" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{AD1DAF14-2494-433C-BBB1-44801AD4E8EA}" name="確認内容" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{22505C77-FA6B-4DED-ADC6-94C4921094C3}" name="操作手順" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{0A1279C3-6F65-47C5-9530-5470D0B9BBDD}" name="期待値" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{C032D18C-30AF-415B-941D-B8C551E00BE7}" name="実施日" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{32AD4535-C6D9-4F50-9E5C-C27A0BCBC8D9}" name="実施結果" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{6709E73D-ECEE-4F3E-AD34-EAF985C58B27}" name="備考" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B8D5445B-94E1-4F67-8231-D6CAF10E8357}" name="テーブル3151712" displayName="テーブル3151712" ref="A14:I15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B8D5445B-94E1-4F67-8231-D6CAF10E8357}" name="テーブル3151712" displayName="テーブル3151712" ref="A14:I15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="82">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{76CAB2D0-532B-4BA2-B0C9-7A0DFAB2BEDA}" name="項目番号" headerRowDxfId="57" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{2F6647BE-189C-4B7B-90B4-EB3106708431}" name="大項目" headerRowDxfId="55" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{74673FCF-D5AC-494D-967A-F6C6D0ABA0BF}" name="列3" headerRowDxfId="53" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{5F7C2C9C-2B2D-4451-84AD-2CC9498B5729}" name="確認内容" headerRowDxfId="51" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{A298A860-A322-4AF6-9AEE-E2BC3A4A41D7}" name="操作手順" headerRowDxfId="49" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{F25FED80-AECD-4074-BF19-9EA3D590EB8A}" name="期待値" headerRowDxfId="47" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{AF0BFB27-E10C-4454-9626-B2CB383A8F4A}" name="実施日" headerRowDxfId="45" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{5A27FBA5-0EB1-491B-9ECB-9680D3168C39}" name="実施結果" headerRowDxfId="43" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{E68534C3-0659-476B-9A7D-615B6169DFE3}" name="備考" headerRowDxfId="41" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{76CAB2D0-532B-4BA2-B0C9-7A0DFAB2BEDA}" name="項目番号" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{2F6647BE-189C-4B7B-90B4-EB3106708431}" name="大項目" headerRowDxfId="79" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{74673FCF-D5AC-494D-967A-F6C6D0ABA0BF}" name="列3" headerRowDxfId="77" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{5F7C2C9C-2B2D-4451-84AD-2CC9498B5729}" name="確認内容" headerRowDxfId="75" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{A298A860-A322-4AF6-9AEE-E2BC3A4A41D7}" name="操作手順" headerRowDxfId="73" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{F25FED80-AECD-4074-BF19-9EA3D590EB8A}" name="期待値" headerRowDxfId="71" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{AF0BFB27-E10C-4454-9626-B2CB383A8F4A}" name="実施日" headerRowDxfId="69" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{5A27FBA5-0EB1-491B-9ECB-9680D3168C39}" name="実施結果" headerRowDxfId="67" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{E68534C3-0659-476B-9A7D-615B6169DFE3}" name="備考" headerRowDxfId="65" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D83CA95-AF55-4434-8622-D724736F31C6}" name="テーブル391910" displayName="テーブル391910" ref="A6:I14" headerRowCount="0" totalsRowShown="0" headerRowDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D83CA95-AF55-4434-8622-D724736F31C6}" name="テーブル391910" displayName="テーブル391910" ref="A6:I14" headerRowCount="0" totalsRowShown="0" headerRowDxfId="63">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6039B8E9-7C8A-470A-9449-5A8E9C77A3D0}" name="項目番号" headerRowDxfId="77" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{6910BF8A-3ABC-4B17-BD8D-980B5BB92955}" name="大項目" headerRowDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{EBC38437-BEC4-40BE-846A-512D6620C1EB}" name="列3" headerRowDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{46CC1FDC-E3C5-42EE-8749-8648CE182B5F}" name="確認内容" headerRowDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{36DD1286-2D83-4527-A354-5DB1FB557B31}" name="操作手順" headerRowDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{9F1A87AD-CEB5-467B-97B8-9F82AA11FE7E}" name="期待値" headerRowDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{9A8E2ABE-B02E-4509-AC7A-53D3611B45B3}" name="実施日" headerRowDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{03EA1545-0EF2-4365-9181-295A169BFAAF}" name="実施結果" headerRowDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{D32A447E-B901-4386-85D5-4F409A00B8C6}" name="備考" headerRowDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{6039B8E9-7C8A-470A-9449-5A8E9C77A3D0}" name="項目番号" headerRowDxfId="62" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{6910BF8A-3ABC-4B17-BD8D-980B5BB92955}" name="大項目" headerRowDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{EBC38437-BEC4-40BE-846A-512D6620C1EB}" name="列3" headerRowDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{46CC1FDC-E3C5-42EE-8749-8648CE182B5F}" name="確認内容" headerRowDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{36DD1286-2D83-4527-A354-5DB1FB557B31}" name="操作手順" headerRowDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{9F1A87AD-CEB5-467B-97B8-9F82AA11FE7E}" name="期待値" headerRowDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{9A8E2ABE-B02E-4509-AC7A-53D3611B45B3}" name="実施日" headerRowDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{03EA1545-0EF2-4365-9181-295A169BFAAF}" name="実施結果" headerRowDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{D32A447E-B901-4386-85D5-4F409A00B8C6}" name="備考" headerRowDxfId="53"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3956,32 +3982,32 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{74D662F5-A537-48A6-AC5A-B101E586A286}" name="テーブル213" displayName="テーブル213" ref="A7:I16" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0C6CCBAD-33A3-421F-8167-2DF01DF6B220}" name="項目番号" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{E3AF70C8-5332-43F4-BF09-7B67C45CCD1D}" name="大項目" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{E87B5612-863D-4D8E-8631-15AED6D6097F}" name="列3" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{5BEC78CB-ED5F-47A8-8A9F-B2F2662FFD41}" name="確認内容" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{A73F444E-7D66-42AC-BCC3-7DF69F140F9E}" name="操作手順" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{A95819F4-BA9C-4C73-B253-7541A2971BEC}" name="期待値" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{ECA5E2D6-B6C4-48EF-B9DF-4FC6FEE389AA}" name="実施日" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{ACC855D2-E056-410D-B1E2-AE66A77A0AB0}" name="実施結果" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{1A6F0DC4-4871-4503-ACC5-15F997B8E3A1}" name="備考" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{0C6CCBAD-33A3-421F-8167-2DF01DF6B220}" name="項目番号" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{E3AF70C8-5332-43F4-BF09-7B67C45CCD1D}" name="大項目" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{E87B5612-863D-4D8E-8631-15AED6D6097F}" name="列3" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{5BEC78CB-ED5F-47A8-8A9F-B2F2662FFD41}" name="確認内容" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{A73F444E-7D66-42AC-BCC3-7DF69F140F9E}" name="操作手順" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{A95819F4-BA9C-4C73-B253-7541A2971BEC}" name="期待値" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{ECA5E2D6-B6C4-48EF-B9DF-4FC6FEE389AA}" name="実施日" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{ACC855D2-E056-410D-B1E2-AE66A77A0AB0}" name="実施結果" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{1A6F0DC4-4871-4503-ACC5-15F997B8E3A1}" name="備考" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{78A90EA0-AAFD-4FD2-8C0C-259CCF41048C}" name="テーブル314" displayName="テーブル314" ref="A17:I21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{78A90EA0-AAFD-4FD2-8C0C-259CCF41048C}" name="テーブル314" displayName="テーブル314" ref="A17:I21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0445F84E-296A-40CA-B7EE-9785438A8C3A}" name="項目番号" headerRowDxfId="29" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{555A32E7-196E-4D8D-BDCB-87EF5455A830}" name="大項目" headerRowDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{B391A22C-3416-4D39-AE4E-5CA2791A251E}" name="列3" headerRowDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{3F9326D3-85B0-4FEA-9D68-C9272F49DFA5}" name="確認内容" headerRowDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{0734F5D0-892F-4B63-A26A-929B5F7A8C1E}" name="操作手順" headerRowDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{41E83C3E-EC13-4D5D-B78C-26982E96B16F}" name="期待値" headerRowDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{B6E90C21-074C-4ED6-9066-68E99214E9FB}" name="実施日" headerRowDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{F04971E9-14D0-45FE-B4C0-5B6538B01362}" name="実施結果" headerRowDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{68CFBCBB-143D-4D5D-8ED6-A71C1C99D522}" name="備考" headerRowDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{0445F84E-296A-40CA-B7EE-9785438A8C3A}" name="項目番号" headerRowDxfId="42" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{555A32E7-196E-4D8D-BDCB-87EF5455A830}" name="大項目" headerRowDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{B391A22C-3416-4D39-AE4E-5CA2791A251E}" name="列3" headerRowDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{3F9326D3-85B0-4FEA-9D68-C9272F49DFA5}" name="確認内容" headerRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{0734F5D0-892F-4B63-A26A-929B5F7A8C1E}" name="操作手順" headerRowDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{41E83C3E-EC13-4D5D-B78C-26982E96B16F}" name="期待値" headerRowDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{B6E90C21-074C-4ED6-9066-68E99214E9FB}" name="実施日" headerRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{F04971E9-14D0-45FE-B4C0-5B6538B01362}" name="実施結果" headerRowDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{68CFBCBB-143D-4D5D-8ED6-A71C1C99D522}" name="備考" headerRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3990,32 +4016,32 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D6ED583E-3A08-4D95-BD2A-F6F6F7FD30E3}" name="テーブル2215" displayName="テーブル2215" ref="A7:I18" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5A373792-AA67-49AF-8773-2E8418D43F4F}" name="項目番号" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{DBA4EBEC-FDFE-4879-BD68-B08A32E41856}" name="大項目" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00550309-2493-4AAF-A363-D1C8FE8130B7}" name="列3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{3D7A6428-9E64-4353-AF54-698F0FFDAEB3}" name="確認内容" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{1A6B3AE7-8A79-47DB-9F5E-B17D5700AAD9}" name="操作手順" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{B84D8463-ECF8-4EC2-9753-907CD6FD0D55}" name="期待値" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{C0B3552F-1328-4BC4-8809-C7F49F3DEC83}" name="実施日" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{BE992527-8DE6-43D7-8A39-7404328E7E7B}" name="実施結果" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{87832364-A92B-419E-AE1D-127D69608C56}" name="備考" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{5A373792-AA67-49AF-8773-2E8418D43F4F}" name="項目番号" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{DBA4EBEC-FDFE-4879-BD68-B08A32E41856}" name="大項目" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00550309-2493-4AAF-A363-D1C8FE8130B7}" name="列3" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{3D7A6428-9E64-4353-AF54-698F0FFDAEB3}" name="確認内容" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{1A6B3AE7-8A79-47DB-9F5E-B17D5700AAD9}" name="操作手順" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{B84D8463-ECF8-4EC2-9753-907CD6FD0D55}" name="期待値" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{C0B3552F-1328-4BC4-8809-C7F49F3DEC83}" name="実施日" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{BE992527-8DE6-43D7-8A39-7404328E7E7B}" name="実施結果" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{87832364-A92B-419E-AE1D-127D69608C56}" name="備考" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{96C9D2B7-CB97-4462-8859-A6898ECAD558}" name="テーブル3616" displayName="テーブル3616" ref="A19:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{96C9D2B7-CB97-4462-8859-A6898ECAD558}" name="テーブル3616" displayName="テーブル3616" ref="A19:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9FF3F54C-24FA-464F-B5BF-6F94CA19C73B}" name="項目番号" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{7FCBEFA5-AFEB-4F83-BA0E-8192CE6536E0}" name="大項目" headerRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E0A4F98E-0B90-40FD-A114-736DE97D7CB0}" name="列3" headerRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{05B896CE-B8EF-4DDC-A7B4-B438033E3C22}" name="確認内容" headerRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{93F51512-D36D-4DDB-95DF-67551AA2BBF3}" name="操作手順" headerRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6D84E801-9CEE-4D06-8FF7-974795ADF1A3}" name="期待値" headerRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9543D445-58E7-431A-9DC9-3407AC6395E1}" name="実施日" headerRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{9C5BD768-F1AC-4419-B4E1-F18252A33223}" name="実施結果" headerRowDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D33AB96E-F133-4F3F-8742-645EBEBEB4EF}" name="備考" headerRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9FF3F54C-24FA-464F-B5BF-6F94CA19C73B}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{7FCBEFA5-AFEB-4F83-BA0E-8192CE6536E0}" name="大項目" headerRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{E0A4F98E-0B90-40FD-A114-736DE97D7CB0}" name="列3" headerRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{05B896CE-B8EF-4DDC-A7B4-B438033E3C22}" name="確認内容" headerRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{93F51512-D36D-4DDB-95DF-67551AA2BBF3}" name="操作手順" headerRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{6D84E801-9CEE-4D06-8FF7-974795ADF1A3}" name="期待値" headerRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{9543D445-58E7-431A-9DC9-3407AC6395E1}" name="実施日" headerRowDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{9C5BD768-F1AC-4419-B4E1-F18252A33223}" name="実施結果" headerRowDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{D33AB96E-F133-4F3F-8742-645EBEBEB4EF}" name="備考" headerRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4340,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4945B0-795D-48C8-AB18-6F28D19F6DAA}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4352,7 +4378,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4365,7 +4391,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4392,12 +4418,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4438,16 +4464,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -4460,7 +4486,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4487,16 +4513,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -4509,7 +4535,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4536,16 +4562,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G14" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -4558,7 +4584,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4566,24 +4592,38 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4602,23 +4642,23 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G19" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>73</v>
@@ -4637,20 +4677,28 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="G21" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4659,7 +4707,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4667,20 +4715,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="G23" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4689,7 +4745,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4698,23 +4754,23 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="4">
-        <v>45991</v>
+        <v>91</v>
+      </c>
+      <c r="G25" s="3">
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>73</v>
@@ -4749,8 +4805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7378DE-BC8E-4933-B6C3-0E70595E5448}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4761,7 +4817,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4774,7 +4830,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4801,12 +4857,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4839,22 +4895,24 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -4867,7 +4925,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4876,23 +4934,23 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G10" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -4905,7 +4963,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4914,23 +4972,23 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G12" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
@@ -4943,7 +5001,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4952,23 +5010,23 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G14" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -4981,7 +5039,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4990,23 +5048,23 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G16" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -5019,7 +5077,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5028,23 +5086,23 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45991</v>
+        <v>91</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46002</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -5080,7 +5138,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5091,7 +5149,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5104,7 +5162,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5131,12 +5189,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5177,16 +5235,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5199,7 +5257,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5215,16 +5273,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G13" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -5237,7 +5295,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -5253,16 +5311,16 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
@@ -5297,7 +5355,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5308,7 +5366,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5321,7 +5379,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5348,12 +5406,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5394,16 +5452,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5416,7 +5474,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5443,16 +5501,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5465,7 +5523,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5492,16 +5550,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G14" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5514,7 +5572,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5534,23 +5592,23 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45991</v>
+        <v>91</v>
+      </c>
+      <c r="G17" s="3">
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -5585,8 +5643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B7B768-CCB8-4585-A81D-20DB2E2C1962}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5597,7 +5655,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5610,7 +5668,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5637,12 +5695,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5683,16 +5741,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5705,7 +5763,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5718,7 +5776,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5734,16 +5792,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5756,7 +5814,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5769,7 +5827,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5785,16 +5843,20 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5817,16 +5879,20 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G16" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5835,7 +5901,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5848,7 +5914,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -5856,9 +5922,17 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19" t="s">
-        <v>150</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
@@ -5869,16 +5943,16 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45991</v>
+        <v>91</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
